--- a/choi/액셀/20917-최수혁-202304-B.xlsx
+++ b/choi/액셀/20917-최수혁-202304-B.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이숭아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김지호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +169,10 @@
   </si>
   <si>
     <t>SK8-122</t>
+  </si>
+  <si>
+    <t>이승아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -607,7 +607,15 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1019,14 +1027,15 @@
   <dimension ref="B3:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="7" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="1" customWidth="1"/>
@@ -1046,25 +1055,25 @@
         <v>9</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>19</v>
-      </c>
       <c r="G4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
@@ -1081,7 +1090,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="27">
         <v>43600</v>
@@ -1106,7 +1115,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="28">
         <v>50000</v>
@@ -1131,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="28">
         <v>109000</v>
@@ -1156,7 +1165,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="28">
         <v>26000</v>
@@ -1172,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="23">
         <v>33496</v>
@@ -1181,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="28">
         <v>57000</v>
@@ -1206,7 +1215,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="28">
         <v>82000</v>
@@ -1222,7 +1231,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D11" s="23">
         <v>32770</v>
@@ -1231,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="28">
         <v>32000</v>
@@ -1247,7 +1256,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="26">
         <v>31145</v>
@@ -1256,7 +1265,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="29">
         <v>25000</v>
@@ -1269,14 +1278,14 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="5"/>
       <c r="F13" s="34"/>
       <c r="G13" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
@@ -1284,22 +1293,25 @@
     </row>
     <row r="14" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="7"/>
       <c r="F14" s="35"/>
       <c r="G14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8">
+        <f>VLOOKUP(H14,B5:H12,4,FALSE)</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="L15" s="11"/>
@@ -1321,6 +1333,11 @@
     <mergeCell ref="G13:I13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B5:J12">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E5&gt;=10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
       <formula1>$B$5:$B$12</formula1>

--- a/choi/액셀/20917-최수혁-202304-B.xlsx
+++ b/choi/액셀/20917-최수혁-202304-B.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="제3작업" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
     <definedName name="보험료">제1작업!$G$5:$G$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>사원코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +175,14 @@
   </si>
   <si>
     <t>이승아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=1990-01-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -259,51 +270,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -457,32 +423,115 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -493,113 +542,128 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -607,7 +671,203 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="#&quot;원&quot;"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -706,15 +966,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>238975</xdr:colOff>
+      <xdr:colOff>269054</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>10376</xdr:rowOff>
+      <xdr:rowOff>15390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>682738</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15988</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>143726</xdr:rowOff>
+      <xdr:rowOff>148740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -738,8 +998,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4912178" y="10376"/>
-          <a:ext cx="1872513" cy="478631"/>
+          <a:off x="5091712" y="15390"/>
+          <a:ext cx="1872513" cy="474245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -759,6 +1019,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E21" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B18:E21"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="사원코드" dataDxfId="4"/>
+    <tableColumn id="2" name="가입연수" dataDxfId="3" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="월 보험료_x000a_(단위:원)" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="4" name="자기부담금" dataDxfId="1" dataCellStyle="쉼표 [0]"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1026,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1039,7 +1312,8 @@
     <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="7" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="9.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
     <col min="13" max="15" width="7.25" style="1" customWidth="1"/>
@@ -1048,282 +1322,339 @@
   <sheetData>
     <row r="3" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="27">
         <v>30053</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="28">
         <v>14</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="29">
         <v>43600</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="28">
         <v>10000</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="21"/>
+      <c r="I5" s="26" t="str">
+        <f>IF(LEFT(B5,1)="s","본부",IF(LEFT(B5,1)="D","연수원","센터"))</f>
+        <v>본부</v>
+      </c>
+      <c r="J5" s="30">
+        <f ca="1">YEAR(TODAY())-YEAR(D5)</f>
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="15">
         <v>28930</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>7</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="16">
         <v>50000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>5000</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="24"/>
+      <c r="I6" s="5" t="str">
+        <f t="shared" ref="I6:I12" si="0">IF(LEFT(B6,1)="s","본부",IF(LEFT(B6,1)="D","연수원","센터"))</f>
+        <v>연수원</v>
+      </c>
+      <c r="J6" s="31">
+        <f t="shared" ref="J6:J12" ca="1" si="1">YEAR(TODAY())-YEAR(D6)</f>
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="15">
         <v>30688</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>8</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="16">
         <v>109000</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>11500</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="24"/>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>센터</v>
+      </c>
+      <c r="J7" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="15">
         <v>27894</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>9</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="16">
         <v>26000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>10000</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>본부</v>
+      </c>
+      <c r="J8" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="15">
         <v>33496</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>11</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="16">
         <v>57000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>5000</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="24"/>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>연수원</v>
+      </c>
+      <c r="J9" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="15">
         <v>33210</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>6</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="16">
         <v>82000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>5000</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="24"/>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>센터</v>
+      </c>
+      <c r="J10" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="15">
         <v>32770</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="16">
         <v>32000</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>12000</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="25" t="s">
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>연수원</v>
+      </c>
+      <c r="J11" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="15">
         <v>31145</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>12</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="16">
         <v>25000</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <v>10000</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>센터</v>
+      </c>
+      <c r="J12" s="31">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="31" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="17">
+        <f>MAX(보험료)</f>
+        <v>109000</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="6"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="3">
+        <f>DCOUNTA(B4:H12,E4,F4:F5)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="13" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="18" t="str">
+        <f>COUNTIF(E5:E12,"&gt;=10")&amp;"명"</f>
+        <v>4명</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="4">
         <f>VLOOKUP(H14,B5:H12,4,FALSE)</f>
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L15" s="11"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="12"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="8"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1334,7 +1665,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$E5&gt;=10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1351,20 +1682,318 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="27">
+        <v>30053</v>
+      </c>
+      <c r="E3" s="28">
+        <v>14</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="29">
+        <v>43600</v>
+      </c>
+      <c r="H3" s="28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15">
+        <v>28930</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="16">
+        <v>50000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="15">
+        <v>30688</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="16">
+        <v>109000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15">
+        <v>27894</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="16">
+        <v>26000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="15">
+        <v>33496</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="16">
+        <v>57000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="15">
+        <v>33210</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="16">
+        <v>82000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="15">
+        <v>32770</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="16">
+        <v>32000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="15">
+        <v>31145</v>
+      </c>
+      <c r="E10" s="2">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="16">
+        <v>25000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="28">
+        <v>14</v>
+      </c>
+      <c r="D19" s="29">
+        <v>43600</v>
+      </c>
+      <c r="E19" s="28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>11</v>
+      </c>
+      <c r="D20" s="16">
+        <v>57000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="35">
+        <v>6</v>
+      </c>
+      <c r="D21" s="36">
+        <v>82000</v>
+      </c>
+      <c r="E21" s="35">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H10">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$E3&gt;=10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/choi/액셀/20917-최수혁-202304-B.xlsx
+++ b/choi/액셀/20917-최수혁-202304-B.xlsx
@@ -9,17 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
     <sheet name="제2작업" sheetId="2" r:id="rId2"/>
     <sheet name="제3작업" sheetId="3" r:id="rId3"/>
+    <sheet name="제4작업" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
     <definedName name="보험료">제1작업!$G$5:$G$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="16" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
   <si>
     <t>사원코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,15 +180,60 @@
   <si>
     <t>이승아</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=1990-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가족</t>
+  </si>
+  <si>
+    <t>개인</t>
+  </si>
+  <si>
+    <t>단체</t>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>개수 : 사원명</t>
+  </si>
+  <si>
+    <t>가입연수</t>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>9-11</t>
+  </si>
+  <si>
+    <t>12-14</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>평균 : 월 보험료(단위:원)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#&quot;원&quot;"/>
+    <numFmt numFmtId="181" formatCode="#,##0&quot;원&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -229,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -259,51 +311,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -457,10 +464,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal style="thin">
@@ -474,15 +481,98 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal style="thin">
         <color indexed="64"/>
       </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -493,127 +583,371 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <color rgb="FF0070C0"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="#&quot;원&quot;"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -626,6 +960,1167 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1"/>
+              <a:t>가족 및 개인 보험 가입 현황</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" sz="2000" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>자기부담금(치료시)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$6,제1작업!$C$7,제1작업!$C$8,제1작업!$C$10,제1작업!$C$11,제1작업!$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>성희도</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>안영자</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>금희윤</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>정재량</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>이승아</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>김지호</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$H$6,제1작업!$H$7,제1작업!$H$8,제1작업!$H$10,제1작업!$H$11,제1작업!$H$12)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"원"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB6B-45F5-9A6B-3C3E358E1A1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="432608847"/>
+        <c:axId val="432606767"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>가입연수</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-DB6B-45F5-9A6B-3C3E358E1A1A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$6,제1작업!$C$7,제1작업!$C$8,제1작업!$C$10,제1작업!$C$11,제1작업!$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>성희도</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>안영자</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>금희윤</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>정재량</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>이승아</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>김지호</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$E$6,제1작업!$E$7,제1작업!$E$8,제1작업!$E$10,제1작업!$E$11,제1작업!$E$12)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB6B-45F5-9A6B-3C3E358E1A1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="363755103"/>
+        <c:axId val="363744607"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="432608847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432606767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="432606767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0&quot;원&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432608847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="363744607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363755103"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="3"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="363755103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="363744607"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+    </a:blipFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId4"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -706,15 +2201,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>238975</xdr:colOff>
+      <xdr:colOff>264041</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>10376</xdr:rowOff>
+      <xdr:rowOff>15390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>682738</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10975</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>143726</xdr:rowOff>
+      <xdr:rowOff>148740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -738,8 +2233,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4912178" y="10376"/>
-          <a:ext cx="1872513" cy="478631"/>
+          <a:off x="5086699" y="15390"/>
+          <a:ext cx="1872513" cy="474245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -759,6 +2254,393 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.71057</cdr:x>
+      <cdr:y>0.1104</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.85151</cdr:x>
+      <cdr:y>0.19512</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6612848" y="671433"/>
+          <a:ext cx="1311640" cy="515287"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 67857"/>
+            <a:gd name="adj2" fmla="val 35969"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>최대</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>가입연수</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="굴림" panose="020B0600000101010101" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="45070.602685300924" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B4:H12" sheet="제1작업"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="사원코드" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="사원명" numFmtId="0">
+      <sharedItems count="8">
+        <s v="정은지"/>
+        <s v="성희도"/>
+        <s v="안영자"/>
+        <s v="금희윤"/>
+        <s v="박승호"/>
+        <s v="정재량"/>
+        <s v="이승아"/>
+        <s v="김지호"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="생년월일" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1976-05-14T00:00:00" maxDate="1991-09-16T00:00:00"/>
+    </cacheField>
+    <cacheField name="가입연수" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="14" count="8">
+        <n v="14"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="11"/>
+        <n v="6"/>
+        <n v="10"/>
+        <n v="12"/>
+      </sharedItems>
+      <fieldGroup base="3">
+        <rangePr startNum="6" endNum="14" groupInterval="3"/>
+        <groupItems count="5">
+          <s v="&lt;6"/>
+          <s v="6-8"/>
+          <s v="9-11"/>
+          <s v="12-14"/>
+          <s v="&gt;15"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="구분" numFmtId="0">
+      <sharedItems count="3">
+        <s v="단체"/>
+        <s v="가족"/>
+        <s v="개인"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="월 보험료_x000a_(단위:원)" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25000" maxValue="109000"/>
+    </cacheField>
+    <cacheField name="자기부담금" numFmtId="41">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5000" maxValue="12000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+  <r>
+    <s v="SK8-122"/>
+    <x v="0"/>
+    <d v="1982-04-12T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="43600"/>
+    <n v="10000"/>
+  </r>
+  <r>
+    <s v="DP8-234"/>
+    <x v="1"/>
+    <d v="1979-03-16T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="50000"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <s v="EP7-145"/>
+    <x v="2"/>
+    <d v="1984-01-07T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="109000"/>
+    <n v="11500"/>
+  </r>
+  <r>
+    <s v="SP7-165"/>
+    <x v="3"/>
+    <d v="1976-05-14T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="26000"/>
+    <n v="10000"/>
+  </r>
+  <r>
+    <s v="DP7-221"/>
+    <x v="4"/>
+    <d v="1991-09-15T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="57000"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <s v="EP8-145"/>
+    <x v="5"/>
+    <d v="1990-12-03T00:00:00"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="82000"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <s v="DP86-288"/>
+    <x v="6"/>
+    <d v="1989-09-19T00:00:00"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="32000"/>
+    <n v="12000"/>
+  </r>
+  <r>
+    <s v="EP6-137"/>
+    <x v="7"/>
+    <d v="1985-04-08T00:00:00"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="25000"/>
+    <n v="10000"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="***" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="가입연수" colHeaderCaption="구분">
+  <location ref="B2:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="41" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="176" showAll="0"/>
+    <pivotField numFmtId="41" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="4"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="개수 : 사원명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 월 보험료(단위:원)" fld="5" subtotal="average" baseField="3" baseItem="1"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E21" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="B18:E21"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="사원코드" dataDxfId="7"/>
+    <tableColumn id="2" name="가입연수" dataDxfId="6" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="월 보험료_x000a_(단위:원)" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="4" name="자기부담금" dataDxfId="4" dataCellStyle="쉼표 [0]"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1026,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1039,7 +2921,8 @@
     <col min="5" max="6" width="9" style="1"/>
     <col min="7" max="7" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="9.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
     <col min="13" max="15" width="7.25" style="1" customWidth="1"/>
@@ -1048,282 +2931,339 @@
   <sheetData>
     <row r="3" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="21">
         <v>30053</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="22">
         <v>14</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="22">
         <v>43600</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="48">
         <v>10000</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="21"/>
+      <c r="I5" s="20" t="str">
+        <f>IF(LEFT(B5,1)="s","본부",IF(LEFT(B5,1)="D","연수원","센터"))</f>
+        <v>본부</v>
+      </c>
+      <c r="J5" s="24">
+        <f ca="1">YEAR(TODAY())-YEAR(D5)</f>
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="15">
         <v>28930</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>7</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="2">
         <v>50000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="49">
         <v>5000</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="24"/>
+      <c r="I6" s="5" t="str">
+        <f t="shared" ref="I6:I12" si="0">IF(LEFT(B6,1)="s","본부",IF(LEFT(B6,1)="D","연수원","센터"))</f>
+        <v>연수원</v>
+      </c>
+      <c r="J6" s="25">
+        <f t="shared" ref="J6:J12" ca="1" si="1">YEAR(TODAY())-YEAR(D6)</f>
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="15">
         <v>30688</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>8</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="2">
         <v>109000</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="49">
         <v>11500</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="24"/>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>센터</v>
+      </c>
+      <c r="J7" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="15">
         <v>27894</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>9</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="2">
         <v>26000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="49">
         <v>10000</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>본부</v>
+      </c>
+      <c r="J8" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="15">
         <v>33496</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>11</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="2">
         <v>57000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="49">
         <v>5000</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="24"/>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>연수원</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="15">
         <v>33210</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>6</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="2">
         <v>82000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="49">
         <v>5000</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="24"/>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>센터</v>
+      </c>
+      <c r="J10" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="15">
         <v>32770</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="2">
         <v>32000</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="49">
         <v>12000</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="25" t="s">
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>연수원</v>
+      </c>
+      <c r="J11" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="15">
         <v>31145</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>12</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="2">
         <v>25000</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="49">
         <v>10000</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>센터</v>
+      </c>
+      <c r="J12" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="31" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="17">
+        <f>MAX(보험료)</f>
+        <v>109000</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="6"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="3">
+        <f>DCOUNTA(B4:H12,E4,F4:F5)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="13" t="s">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="18" t="str">
+        <f>COUNTIF(E5:E12,"&gt;=10")&amp;"명"</f>
+        <v>4명</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="4">
         <f>VLOOKUP(H14,B5:H12,4,FALSE)</f>
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L15" s="11"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="12"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="8"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1334,7 +3274,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$E5&gt;=10</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1351,37 +3291,644 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21">
+        <v>30053</v>
+      </c>
+      <c r="E3" s="22">
+        <v>14</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="23">
+        <v>43600</v>
+      </c>
+      <c r="H3" s="22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15">
+        <v>28930</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="16">
+        <v>50000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="15">
+        <v>30688</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="16">
+        <v>109000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15">
+        <v>27894</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="16">
+        <v>26000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="15">
+        <v>33496</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="16">
+        <v>57000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="15">
+        <v>33210</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="16">
+        <v>82000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="15">
+        <v>32770</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="16">
+        <v>32000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="15">
+        <v>31145</v>
+      </c>
+      <c r="E10" s="2">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="16">
+        <v>25000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22">
+        <v>14</v>
+      </c>
+      <c r="D19" s="23">
+        <v>43600</v>
+      </c>
+      <c r="E19" s="22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>11</v>
+      </c>
+      <c r="D20" s="16">
+        <v>57000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="29">
+        <v>6</v>
+      </c>
+      <c r="D21" s="30">
+        <v>82000</v>
+      </c>
+      <c r="E21" s="29">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B3:H10">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$E3&gt;=10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+    </row>
+    <row r="3" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="42"/>
+      <c r="C3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+    </row>
+    <row r="4" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+    </row>
+    <row r="5" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="47">
+        <v>1</v>
+      </c>
+      <c r="F5" s="47">
+        <v>82000</v>
+      </c>
+      <c r="G5" s="47">
+        <v>2</v>
+      </c>
+      <c r="H5" s="47">
+        <v>79500</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="47">
+        <v>1</v>
+      </c>
+      <c r="D6" s="47">
+        <v>57000</v>
+      </c>
+      <c r="E6" s="47">
+        <v>1</v>
+      </c>
+      <c r="F6" s="47">
+        <v>26000</v>
+      </c>
+      <c r="G6" s="47">
+        <v>1</v>
+      </c>
+      <c r="H6" s="47">
+        <v>32000</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="47">
+        <v>1</v>
+      </c>
+      <c r="D7" s="47">
+        <v>43600</v>
+      </c>
+      <c r="E7" s="47">
+        <v>1</v>
+      </c>
+      <c r="F7" s="47">
+        <v>25000</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="47">
+        <v>2</v>
+      </c>
+      <c r="D8" s="47">
+        <v>50300</v>
+      </c>
+      <c r="E8" s="47">
+        <v>3</v>
+      </c>
+      <c r="F8" s="47">
+        <v>44333.333333333336</v>
+      </c>
+      <c r="G8" s="47">
+        <v>3</v>
+      </c>
+      <c r="H8" s="47">
+        <v>63666.666666666664</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="41"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
